--- a/classfiers/greedy/decisionTree/smote/greedy-decisionTree-smote-results.xlsx
+++ b/classfiers/greedy/decisionTree/smote/greedy-decisionTree-smote-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978260869565218</v>
+        <v>0.9952153110047847</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.990521327014218</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9952380952380951</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9952380952380953</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.958904109589041</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9956521739130435</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9978260869565218</v>
+        <v>0.9784688995215312</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9913793103448275</v>
+        <v>0.9952606635071091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9913043478260869</v>
+        <v>0.9952153110047847</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9835294117647059</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9665071770334929</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9965811965811966</v>
+        <v>0.9815168133863402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982608695652175</v>
+        <v>0.9980861244019138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9974044023739763</v>
+        <v>0.9896482914446393</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9973913043478262</v>
+        <v>0.9861289587605377</v>
       </c>
     </row>
   </sheetData>
